--- a/output_analysis/START_4_SEC_0.5_ENERGY_1.5_EV-FACTOR_16_EV_50_FLEX_300_TPS.txt.xlsx
+++ b/output_analysis/START_4_SEC_0.5_ENERGY_1.5_EV-FACTOR_16_EV_50_FLEX_300_TPS.txt.xlsx
@@ -434,435 +434,440 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle-ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle-ID</t>
+          <t>Trips</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Trips</t>
+          <t>Number of Trips</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Distances</t>
+          <t>Sequential Coverage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Individual Coverages</t>
+          <t>Ride-share Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Individual Energy</t>
+          <t>Individual Coverage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Energy</t>
+          <t>Individual Cars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2 5 8 11 26 34 74 114 141</t>
-        </is>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5 17 25 59</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E2" t="n">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>169</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>16 18 24 25 52 69 146 148 155</t>
-        </is>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>9 27 69 74 116 156 159</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="E3" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>180</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>17 30 41 53 73 96 130</t>
-        </is>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>10 18 26 120 124</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E4" t="n">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>158</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>29 61 89 163 199</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>145</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>13 15 38 48 55 65 110 113</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>207</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>25</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>16 22 40 92 102 126</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>191</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>38</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>31 34 115</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>19 44 76 113 121</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" t="n">
-        <v>137</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>23 28 40 46 64 65</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>100</v>
-      </c>
-      <c r="E6" t="n">
-        <v>149</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="D8" t="n">
+        <v>86</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>45 83 189</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>113</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2 4 7 12 20 81 85 181</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>121</v>
+      </c>
+      <c r="E10" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>6 14 19 28 82 107 268</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>125</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>18</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8 24 30 47 78 161 205</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>125</v>
+      </c>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>33 36 46 51 148</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>5</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>38 47 66 99 112</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" t="n">
-        <v>107</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="D13" t="n">
+        <v>117</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" t="n">
+        <v>22</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>11 23 32 53 60 97</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="D14" t="n">
+        <v>106</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" t="n">
+        <v>18</v>
+      </c>
+      <c r="G14" t="n">
         <v>6</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>54 72 83 87 116 128</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="n">
-        <v>131</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>75 85 213 225 276</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>100</v>
-      </c>
-      <c r="E9" t="n">
-        <v>145</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1 7 12 42 97 101</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>100</v>
-      </c>
-      <c r="E10" t="n">
-        <v>114</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>9 13 242</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>100</v>
-      </c>
-      <c r="E11" t="n">
-        <v>124</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10 14 21 58 88 120 205 263</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>100</v>
-      </c>
-      <c r="E12" t="n">
-        <v>144</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>44 104 135</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>102</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100</v>
+      </c>
+      <c r="F15" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>20 48 59 68 124</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>100</v>
-      </c>
-      <c r="E13" t="n">
-        <v>130</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>6 36 79 98</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>100</v>
-      </c>
-      <c r="E14" t="n">
-        <v>111</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>27 70 126 175 223 290</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>100</v>
-      </c>
-      <c r="E15" t="n">
-        <v>115</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
       <c r="G15" t="n">
-        <v>115</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>45 51 60 78 145 164 173 209</t>
-        </is>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>50 54 94 183 209 216</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="E16" t="n">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="G16" t="n">
-        <v>124</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>57 71 103 110</t>
-        </is>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>57 63 117 144 233 256</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="E17" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="G17" t="n">
-        <v>88</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
